--- a/Project_spmedgruop/Modelagem MER/Modelo_Fisico.xlsx
+++ b/Project_spmedgruop/Modelagem MER/Modelo_Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\SENAI\2º sem\banco\BancoDados-SQL\Project_spmedgruop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\SENAI\2º sem\banco\spmedgroup_aprint1_bd\Project_spmedgruop\Modelagem MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FD443-586C-4574-9A99-C320BBE2E499}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB767B1F-D080-4BDC-9764-CBC519E9BE64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E81C042C-6BA2-44CD-B1C5-9C4D518C2F76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -81,9 +81,6 @@
     <t>CNPJ</t>
   </si>
   <si>
-    <t>EndereçoPaciente</t>
-  </si>
-  <si>
     <t>RazãoSocial</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>fernando@gmail.com</t>
   </si>
   <si>
-    <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
-  </si>
-  <si>
     <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
   </si>
   <si>
@@ -370,6 +364,117 @@
   </si>
   <si>
     <t>TituloSituacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>IDEndereço</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>, São Paulo, Estado de São Paulo, 04022-000</t>
+  </si>
+  <si>
+    <t>Rua Estado de Israel 240</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estado de São Paulo</t>
+  </si>
+  <si>
+    <t>04022-000</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Av. Paulista, 1578</t>
+  </si>
+  <si>
+    <t>Bela Vista</t>
+  </si>
+  <si>
+    <t>01310-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04029-200</t>
+  </si>
+  <si>
+    <t>06402-030</t>
+  </si>
+  <si>
+    <t>09405-380</t>
+  </si>
+  <si>
+    <t>06407-140</t>
+  </si>
+  <si>
+    <t>06565-300</t>
+  </si>
+  <si>
+    <t>R. Vitória, 120</t>
+  </si>
+  <si>
+    <t>Indianópolis</t>
+  </si>
+  <si>
+    <t>Av. Ibirapuera 2927</t>
+  </si>
+  <si>
+    <t>R. Ver. Geraldo de Camargo, 66</t>
+  </si>
+  <si>
+    <t>Alameda dos Arapanés, 945</t>
+  </si>
+  <si>
+    <t>R Sao Antonio, 232</t>
+  </si>
+  <si>
+    <t>Barueri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> São Paulo</t>
+  </si>
+  <si>
+    <t>Santa Luiza</t>
+  </si>
+  <si>
+    <t>Vila Sao Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santa Luzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vila Universal</t>
+  </si>
+  <si>
+    <t>IDCidade</t>
+  </si>
+  <si>
+    <t>IDEstado</t>
+  </si>
+  <si>
+    <t>IDBairro</t>
+  </si>
+  <si>
+    <t>Titulo</t>
   </si>
 </sst>
 </file>
@@ -442,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,12 +676,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,6 +689,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -672,9 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -731,57 +857,103 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -791,14 +963,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF6699FF"/>
       <color rgb="FF3366FF"/>
       <color rgb="FF3333CC"/>
-      <color rgb="FFFF66FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFCC00CC"/>
     </mruColors>
   </colors>
@@ -1110,57 +1282,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64279-83F6-44A8-8AC2-AB0B53067C09}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="66.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="71.42578125" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="I1" s="61" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="I1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="L1" s="64" t="s">
+      <c r="J1" s="54"/>
+      <c r="L1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="5"/>
       <c r="T1" s="2"/>
     </row>
@@ -1171,18 +1344,20 @@
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>22</v>
+      <c r="G2" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>12</v>
@@ -1196,48 +1371,52 @@
       <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>26</v>
+      <c r="N2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="40">
-        <v>1</v>
-      </c>
-      <c r="E3" s="38">
+        <v>31</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37">
         <v>8</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>2</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>102</v>
+      <c r="G3" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="22">
         <v>1</v>
@@ -1245,22 +1424,24 @@
       <c r="M3" s="22">
         <v>1</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="44">
+      <c r="N3" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="43">
         <v>30602</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="45">
         <v>94839859000</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="2"/>
+      <c r="S3" s="24" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1269,24 +1450,26 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="40">
+      <c r="C4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="39">
         <v>2</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>9</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>17</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>103</v>
+      <c r="G4" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="I4" s="8">
         <v>2</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="22">
         <v>2</v>
@@ -1294,48 +1477,52 @@
       <c r="M4" s="22">
         <v>2</v>
       </c>
-      <c r="N4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="44">
+      <c r="N4" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="43">
         <v>37095</v>
       </c>
-      <c r="P4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="45">
         <v>73556944057</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="2"/>
+      <c r="S4" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="40">
+        <v>32</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="39">
         <v>3</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>10</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>16</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>104</v>
+      <c r="G5" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="I5" s="8">
         <v>3</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="22">
         <v>3</v>
@@ -1343,93 +1530,99 @@
       <c r="M5" s="22">
         <v>3</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="44">
+      <c r="N5" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="43">
         <v>28773</v>
       </c>
-      <c r="P5" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="45">
         <v>16839338002</v>
       </c>
-      <c r="R5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="2"/>
+      <c r="S5" s="24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="16"/>
       <c r="I6" s="8">
         <v>4</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="22">
         <v>4</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>4</v>
       </c>
-      <c r="N6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="44">
+      <c r="N6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="43">
         <v>31333</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="45">
         <v>14332654765</v>
       </c>
-      <c r="R6" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="T6" s="2"/>
+      <c r="S6" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="59"/>
       <c r="I7" s="8">
         <v>5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L7" s="22">
         <v>5</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>5</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="44">
+      <c r="N7" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="43">
         <v>27633</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="Q7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="45">
+        <v>91305348010</v>
+      </c>
+      <c r="S7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="46">
-        <v>91305348010</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -1442,43 +1635,41 @@
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="8">
         <v>6</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" s="22">
         <v>6</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>6</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="44">
+      <c r="N8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="43">
         <v>26379</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="45">
         <v>79799299004</v>
       </c>
-      <c r="R8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="2"/>
+      <c r="S8" s="24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -1490,42 +1681,40 @@
       <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
+      <c r="D9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="I9" s="8">
         <v>7</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L9" s="22">
         <v>7</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <v>7</v>
       </c>
-      <c r="N9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="44">
+      <c r="N9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="43">
         <v>43164</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="45">
         <v>13771913039</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -1538,24 +1727,20 @@
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="8">
         <v>8</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="2"/>
@@ -1573,20 +1758,17 @@
       <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>42</v>
+      <c r="D11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="I11" s="8">
         <v>9</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1601,20 +1783,17 @@
       <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>57</v>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="I12" s="8">
         <v>10</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T12" s="2"/>
     </row>
@@ -1622,140 +1801,128 @@
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
       <c r="C13" s="19">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="8">
         <v>11</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>1</v>
       </c>
       <c r="C14" s="19">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="8">
         <v>12</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>1</v>
       </c>
       <c r="C15" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>60</v>
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8">
         <v>13</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
+        <v>86</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>3</v>
       </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>99</v>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="8">
         <v>14</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>28</v>
+      <c r="O16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="2"/>
@@ -1765,45 +1932,42 @@
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>3</v>
       </c>
       <c r="C17" s="19">
         <v>1</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>100</v>
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="8">
         <v>15</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="35">
-        <v>1</v>
-      </c>
-      <c r="M17" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="34">
+        <v>1</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="34">
+        <v>1231322233</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="35">
-        <v>1231322233</v>
-      </c>
-      <c r="O17" s="42" t="s">
+      <c r="Q17" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="P17" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="35" t="s">
-        <v>108</v>
       </c>
       <c r="R17" s="16"/>
       <c r="S17" s="2"/>
@@ -1813,27 +1977,24 @@
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
       <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>101</v>
+      <c r="D18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="8">
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="16"/>
@@ -1850,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="16"/>
@@ -1868,195 +2029,195 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="65"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="12"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>31</v>
+      <c r="D22" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="60"/>
+      <c r="I22" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="53"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
-        <v>1</v>
-      </c>
-      <c r="B23" s="48">
+      <c r="A23" s="60">
+        <v>1</v>
+      </c>
+      <c r="B23" s="61">
         <v>3</v>
       </c>
-      <c r="C23" s="47">
-        <v>1</v>
-      </c>
-      <c r="D23" s="52">
+      <c r="C23" s="60">
+        <v>1</v>
+      </c>
+      <c r="D23" s="62">
         <v>43850.625</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="63">
         <v>2</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>114</v>
+      <c r="I23" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+      <c r="A24" s="60">
         <v>2</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="61">
         <v>2</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="60">
         <v>2</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="62">
         <v>43836.416666666664</v>
       </c>
-      <c r="E24" s="53">
-        <v>1</v>
-      </c>
-      <c r="F24" s="49"/>
+      <c r="E24" s="63">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="56">
-        <v>1</v>
-      </c>
-      <c r="J24" s="56" t="s">
-        <v>110</v>
+      <c r="I24" s="47">
+        <v>1</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="60">
         <v>3</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="61">
         <v>2</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="65">
         <v>3</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="62">
         <v>43868.458333333336</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="63">
         <v>2</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="12"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="56">
+      <c r="I25" s="47">
         <v>2</v>
       </c>
-      <c r="J25" s="56" t="s">
-        <v>109</v>
+      <c r="J25" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="60">
         <v>4</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="66">
         <v>2</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="65">
         <v>4</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="62">
         <v>43137.416666666664</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="63">
         <v>2</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="12"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="56">
+      <c r="I26" s="47">
         <v>3</v>
       </c>
-      <c r="J26" s="56" t="s">
-        <v>111</v>
+      <c r="J26" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="60">
         <v>5</v>
       </c>
-      <c r="B27" s="48">
-        <v>1</v>
-      </c>
-      <c r="C27" s="54">
+      <c r="B27" s="61">
+        <v>1</v>
+      </c>
+      <c r="C27" s="65">
         <v>5</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="62">
         <v>43503.458854166667</v>
       </c>
-      <c r="E27" s="53">
-        <v>1</v>
-      </c>
-      <c r="F27" s="51"/>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67"/>
       <c r="G27" s="12"/>
       <c r="H27" s="16"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="33"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="A28" s="60">
         <v>6</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="61">
         <v>3</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="65">
         <v>6</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="62">
         <v>43898.625</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="63">
         <v>3</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="12"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -2064,22 +2225,22 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="A29" s="60">
         <v>7</v>
       </c>
-      <c r="B29" s="48">
-        <v>1</v>
-      </c>
-      <c r="C29" s="54">
+      <c r="B29" s="61">
+        <v>1</v>
+      </c>
+      <c r="C29" s="65">
         <v>7</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="62">
         <v>43899.458854166667</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="63">
         <v>3</v>
       </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="12"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -2120,31 +2281,278 @@
       <c r="K32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
+        <v>1</v>
+      </c>
+      <c r="B35" s="73">
+        <v>1</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
+        <v>2</v>
+      </c>
+      <c r="B36" s="73">
+        <v>2</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
+        <v>3</v>
+      </c>
+      <c r="B37" s="73">
+        <v>3</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
+        <v>4</v>
+      </c>
+      <c r="B38" s="73">
+        <v>4</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
+        <v>5</v>
+      </c>
+      <c r="B39" s="73">
+        <v>5</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
+        <v>6</v>
+      </c>
+      <c r="B40" s="73">
+        <v>6</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>7</v>
+      </c>
+      <c r="B41" s="73">
+        <v>7</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="78"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="75"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="75"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="75"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="75"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="75"/>
+      <c r="C51" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{0462159F-D50C-4C32-BE65-3A7FAB8C343E}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{550E2859-6816-4043-9390-C82776E42384}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{9EF6BAA7-04FF-4CC5-84EC-4B67D9616E9F}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{C2AE453D-5549-43E0-8C88-B021F5F9B212}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{1B2D609C-8106-4484-9ED9-1BCBABC8F9B9}"/>
-    <hyperlink ref="F14" r:id="rId6" xr:uid="{6928BE8D-EAA1-442B-9E0A-8035598AFC3C}"/>
-    <hyperlink ref="F15" r:id="rId7" xr:uid="{69DF0AEA-EE72-4B70-BEA5-2D7A2E5359F0}"/>
-    <hyperlink ref="F16" r:id="rId8" xr:uid="{6F16625F-CE60-434B-B175-03707B7EAAEF}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{E7860E55-F51A-4B21-9FE1-E42CAA4A9E81}"/>
-    <hyperlink ref="F18" r:id="rId10" xr:uid="{B5F2D987-5BB6-4631-B3C1-F3D50C3F6013}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{0462159F-D50C-4C32-BE65-3A7FAB8C343E}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{550E2859-6816-4043-9390-C82776E42384}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{9EF6BAA7-04FF-4CC5-84EC-4B67D9616E9F}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{C2AE453D-5549-43E0-8C88-B021F5F9B212}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{1B2D609C-8106-4484-9ED9-1BCBABC8F9B9}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{6928BE8D-EAA1-442B-9E0A-8035598AFC3C}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{69DF0AEA-EE72-4B70-BEA5-2D7A2E5359F0}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{6F16625F-CE60-434B-B175-03707B7EAAEF}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{E7860E55-F51A-4B21-9FE1-E42CAA4A9E81}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{B5F2D987-5BB6-4631-B3C1-F3D50C3F6013}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/Project_spmedgruop/Modelagem MER/Modelo_Fisico.xlsx
+++ b/Project_spmedgruop/Modelagem MER/Modelo_Fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\SENAI\2º sem\SpMedGroup\Project_spmedgruop\Modelagem MER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Henrique\SENAI\2º sem\Backand\Senai_SpMedGroup_BackEnd_BD_manha_henriquebarreirosantana\Project_spmedgruop\Modelagem MER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387F9858-6B73-461D-9486-BB9BB2069E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F33C0-B194-49F8-9596-720597786A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="1" xr2:uid="{E81C042C-6BA2-44CD-B1C5-9C4D518C2F76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" xr2:uid="{E81C042C-6BA2-44CD-B1C5-9C4D518C2F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinica" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>01202-001</t>
+  </si>
+  <si>
+    <t>Ribeirão Pires</t>
+  </si>
+  <si>
+    <t>Razão Social</t>
   </si>
 </sst>
 </file>
@@ -697,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -885,10 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,6 +909,7 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,9 +926,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64279-83F6-44A8-8AC2-AB0B53067C09}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,18 +1294,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="A1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>25</v>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1B096-19C0-4F79-8B3D-47F5B607BDC2}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,20 +1598,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>114</v>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,15 +1929,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="59"/>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="82"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
     </row>
@@ -2032,8 +2032,12 @@
       <c r="G7" s="63"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>138</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -2073,10 +2077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="82"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -2133,10 +2137,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2292,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EAFE1E-F3CD-44E7-B201-220CEC0BAAB6}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,15 +2313,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -2341,8 +2347,8 @@
       <c r="G2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
@@ -2362,6 +2368,8 @@
         <v>2</v>
       </c>
       <c r="G3" s="46"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -2381,6 +2389,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -2400,6 +2410,8 @@
         <v>2</v>
       </c>
       <c r="G5" s="46"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
@@ -2419,6 +2431,8 @@
         <v>2</v>
       </c>
       <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
@@ -2438,6 +2452,8 @@
         <v>1</v>
       </c>
       <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -2457,6 +2473,8 @@
         <v>3</v>
       </c>
       <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -2476,11 +2494,15 @@
         <v>3</v>
       </c>
       <c r="G9" s="49"/>
-      <c r="I9" s="72"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2504,13 +2526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2734,10 +2756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="85"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2795,79 +2817,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="73" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="78">
-        <v>1</v>
-      </c>
-      <c r="C3" s="77">
+      <c r="B3" s="76">
+        <v>1</v>
+      </c>
+      <c r="C3" s="75">
         <v>8</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="76">
         <v>2</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="76">
         <v>2</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="75">
         <v>9</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="76">
         <v>17</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="76" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="76">
         <v>3</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="75">
         <v>10</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="76">
         <v>16</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="76" t="s">
         <v>94</v>
       </c>
     </row>
